--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H2">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07648333333333333</v>
+        <v>0.03142433333333333</v>
       </c>
       <c r="N2">
-        <v>0.22945</v>
+        <v>0.094273</v>
       </c>
       <c r="O2">
-        <v>0.09982619061603352</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="P2">
-        <v>0.09982619061603351</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="Q2">
-        <v>0.5212520432166666</v>
+        <v>0.2289800039433333</v>
       </c>
       <c r="R2">
-        <v>4.691268388949999</v>
+        <v>2.06082003549</v>
       </c>
       <c r="S2">
-        <v>0.02374300414542019</v>
+        <v>0.002902375322086972</v>
       </c>
       <c r="T2">
-        <v>0.02374300414542019</v>
+        <v>0.002902375322086974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H3">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.888734</v>
       </c>
       <c r="O3">
-        <v>0.8217263905294552</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="P3">
-        <v>0.8217263905294551</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="Q3">
-        <v>4.290723279986</v>
+        <v>4.58755230838</v>
       </c>
       <c r="R3">
-        <v>38.616509519874</v>
+        <v>41.28797077542</v>
       </c>
       <c r="S3">
-        <v>0.1954422278997432</v>
+        <v>0.0581483028182684</v>
       </c>
       <c r="T3">
-        <v>0.1954422278997432</v>
+        <v>0.05814830281826841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H4">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02458133333333333</v>
+        <v>0.974347</v>
       </c>
       <c r="N4">
-        <v>0.073744</v>
+        <v>2.923041</v>
       </c>
       <c r="O4">
-        <v>0.03208360253122151</v>
+        <v>0.5511682698970745</v>
       </c>
       <c r="P4">
-        <v>0.03208360253122151</v>
+        <v>0.5511682698970746</v>
       </c>
       <c r="Q4">
-        <v>0.1675276124426667</v>
+        <v>7.099784028369999</v>
       </c>
       <c r="R4">
-        <v>1.507748511984</v>
+        <v>63.89805625533</v>
       </c>
       <c r="S4">
-        <v>0.007630874254521102</v>
+        <v>0.0899914298245354</v>
       </c>
       <c r="T4">
-        <v>0.007630874254521103</v>
+        <v>0.08999142982453544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H5">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03552233333333334</v>
+        <v>0.06888499999999999</v>
       </c>
       <c r="N5">
-        <v>0.106567</v>
+        <v>0.206655</v>
       </c>
       <c r="O5">
-        <v>0.0463638163232898</v>
+        <v>0.03896684268731773</v>
       </c>
       <c r="P5">
-        <v>0.0463638163232898</v>
+        <v>0.03896684268731774</v>
       </c>
       <c r="Q5">
-        <v>0.2420931204596667</v>
+        <v>0.5019450183499998</v>
       </c>
       <c r="R5">
-        <v>2.178838084137</v>
+        <v>4.517505165149999</v>
       </c>
       <c r="S5">
-        <v>0.0110273293648507</v>
+        <v>0.0063622709809371</v>
       </c>
       <c r="T5">
-        <v>0.0110273293648507</v>
+        <v>0.006362270980937102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.660570666666667</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H6">
-        <v>7.981712</v>
+        <v>21.86013</v>
       </c>
       <c r="I6">
-        <v>0.09285066215427032</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J6">
-        <v>0.09285066215427033</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07648333333333333</v>
+        <v>0.06355066666666666</v>
       </c>
       <c r="N6">
-        <v>0.22945</v>
+        <v>0.190652</v>
       </c>
       <c r="O6">
-        <v>0.09982619061603352</v>
+        <v>0.03594931887456147</v>
       </c>
       <c r="P6">
-        <v>0.09982619061603351</v>
+        <v>0.03594931887456148</v>
       </c>
       <c r="Q6">
-        <v>0.2034893131555555</v>
+        <v>0.4630752783066666</v>
       </c>
       <c r="R6">
-        <v>1.8314038184</v>
+        <v>4.167677504759999</v>
       </c>
       <c r="S6">
-        <v>0.009268927899037119</v>
+        <v>0.005869587897982725</v>
       </c>
       <c r="T6">
-        <v>0.009268927899037119</v>
+        <v>0.005869587897982727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J7">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6295780000000001</v>
+        <v>0.03142433333333333</v>
       </c>
       <c r="N7">
-        <v>1.888734</v>
+        <v>0.094273</v>
       </c>
       <c r="O7">
-        <v>0.8217263905294552</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="P7">
-        <v>0.8217263905294551</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="Q7">
-        <v>1.675036759178667</v>
+        <v>0.08360665948622222</v>
       </c>
       <c r="R7">
-        <v>15.075330832608</v>
+        <v>0.752459935376</v>
       </c>
       <c r="S7">
-        <v>0.07629783947029843</v>
+        <v>0.001059734042606583</v>
       </c>
       <c r="T7">
-        <v>0.07629783947029843</v>
+        <v>0.001059734042606584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J8">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02458133333333333</v>
+        <v>0.6295780000000001</v>
       </c>
       <c r="N8">
-        <v>0.073744</v>
+        <v>1.888734</v>
       </c>
       <c r="O8">
-        <v>0.03208360253122151</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="P8">
-        <v>0.03208360253122151</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="Q8">
-        <v>0.06540037441422222</v>
+        <v>1.675036759178667</v>
       </c>
       <c r="R8">
-        <v>0.588603369728</v>
+        <v>15.075330832608</v>
       </c>
       <c r="S8">
-        <v>0.002978983739318341</v>
+        <v>0.02123148427681842</v>
       </c>
       <c r="T8">
-        <v>0.002978983739318341</v>
+        <v>0.02123148427681843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J9">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03552233333333334</v>
+        <v>0.974347</v>
       </c>
       <c r="N9">
-        <v>0.106567</v>
+        <v>2.923041</v>
       </c>
       <c r="O9">
-        <v>0.0463638163232898</v>
+        <v>0.5511682698970745</v>
       </c>
       <c r="P9">
-        <v>0.0463638163232898</v>
+        <v>0.5511682698970746</v>
       </c>
       <c r="Q9">
-        <v>0.09450967807822223</v>
+        <v>2.592319047354667</v>
       </c>
       <c r="R9">
-        <v>0.8505871027040001</v>
+        <v>23.330871426192</v>
       </c>
       <c r="S9">
-        <v>0.004304911045616425</v>
+        <v>0.03285825268777689</v>
       </c>
       <c r="T9">
-        <v>0.004304911045616425</v>
+        <v>0.0328582526877769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.265451333333334</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H10">
-        <v>15.796354</v>
+        <v>7.981712</v>
       </c>
       <c r="I10">
-        <v>0.1837578114223185</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J10">
-        <v>0.1837578114223185</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.07648333333333333</v>
+        <v>0.06888499999999999</v>
       </c>
       <c r="N10">
-        <v>0.22945</v>
+        <v>0.206655</v>
       </c>
       <c r="O10">
-        <v>0.09982619061603352</v>
+        <v>0.03896684268731773</v>
       </c>
       <c r="P10">
-        <v>0.09982619061603351</v>
+        <v>0.03896684268731774</v>
       </c>
       <c r="Q10">
-        <v>0.4027192694777778</v>
+        <v>0.1832734103733333</v>
       </c>
       <c r="R10">
-        <v>3.6244734253</v>
+        <v>1.64946069336</v>
       </c>
       <c r="S10">
-        <v>0.01834384231022951</v>
+        <v>0.00232303351516196</v>
       </c>
       <c r="T10">
-        <v>0.01834384231022951</v>
+        <v>0.002323033515161961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.265451333333334</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H11">
-        <v>15.796354</v>
+        <v>7.981712</v>
       </c>
       <c r="I11">
-        <v>0.1837578114223185</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J11">
-        <v>0.1837578114223185</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6295780000000001</v>
+        <v>0.06355066666666666</v>
       </c>
       <c r="N11">
-        <v>1.888734</v>
+        <v>0.190652</v>
       </c>
       <c r="O11">
-        <v>0.8217263905294552</v>
+        <v>0.03594931887456147</v>
       </c>
       <c r="P11">
-        <v>0.8217263905294551</v>
+        <v>0.03594931887456148</v>
       </c>
       <c r="Q11">
-        <v>3.315012319537334</v>
+        <v>0.1690810395804444</v>
       </c>
       <c r="R11">
-        <v>29.835110875836</v>
+        <v>1.521729356224</v>
       </c>
       <c r="S11">
-        <v>0.1509986431116541</v>
+        <v>0.002143141882522359</v>
       </c>
       <c r="T11">
-        <v>0.1509986431116541</v>
+        <v>0.00214314188252236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H12">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02458133333333333</v>
+        <v>0.03142433333333333</v>
       </c>
       <c r="N12">
-        <v>0.073744</v>
+        <v>0.094273</v>
       </c>
       <c r="O12">
-        <v>0.03208360253122151</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="P12">
-        <v>0.03208360253122151</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="Q12">
-        <v>0.1294318143751111</v>
+        <v>0.5973299848551111</v>
       </c>
       <c r="R12">
-        <v>1.164886329376</v>
+        <v>5.375969863696</v>
       </c>
       <c r="S12">
-        <v>0.005895612583680824</v>
+        <v>0.007571297830945534</v>
       </c>
       <c r="T12">
-        <v>0.005895612583680824</v>
+        <v>0.007571297830945538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H13">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03552233333333334</v>
+        <v>0.6295780000000001</v>
       </c>
       <c r="N13">
-        <v>0.106567</v>
+        <v>1.888734</v>
       </c>
       <c r="O13">
-        <v>0.0463638163232898</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="P13">
-        <v>0.0463638163232898</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="Q13">
-        <v>0.1870411174131111</v>
+        <v>11.96734432568534</v>
       </c>
       <c r="R13">
-        <v>1.683370056718</v>
+        <v>107.706098931168</v>
       </c>
       <c r="S13">
-        <v>0.0085197134167541</v>
+        <v>0.151688899657729</v>
       </c>
       <c r="T13">
-        <v>0.0085197134167541</v>
+        <v>0.1516888996577291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2464976666666667</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H14">
-        <v>0.7394930000000001</v>
+        <v>57.025552</v>
       </c>
       <c r="I14">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J14">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07648333333333333</v>
+        <v>0.974347</v>
       </c>
       <c r="N14">
-        <v>0.22945</v>
+        <v>2.923041</v>
       </c>
       <c r="O14">
-        <v>0.09982619061603352</v>
+        <v>0.5511682698970745</v>
       </c>
       <c r="P14">
-        <v>0.09982619061603351</v>
+        <v>0.5511682698970746</v>
       </c>
       <c r="Q14">
-        <v>0.01885296320555556</v>
+        <v>18.52089183818133</v>
       </c>
       <c r="R14">
-        <v>0.16967666885</v>
+        <v>166.688026543632</v>
       </c>
       <c r="S14">
-        <v>0.0008587515183262258</v>
+        <v>0.2347566533690968</v>
       </c>
       <c r="T14">
-        <v>0.0008587515183262257</v>
+        <v>0.234756653369097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2464976666666667</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H15">
-        <v>0.7394930000000001</v>
+        <v>57.025552</v>
       </c>
       <c r="I15">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J15">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6295780000000001</v>
+        <v>0.06888499999999999</v>
       </c>
       <c r="N15">
-        <v>1.888734</v>
+        <v>0.206655</v>
       </c>
       <c r="O15">
-        <v>0.8217263905294552</v>
+        <v>0.03896684268731773</v>
       </c>
       <c r="P15">
-        <v>0.8217263905294551</v>
+        <v>0.03896684268731774</v>
       </c>
       <c r="Q15">
-        <v>0.1551895079846667</v>
+        <v>1.309401716506666</v>
       </c>
       <c r="R15">
-        <v>1.396705571862</v>
+        <v>11.78461544856</v>
       </c>
       <c r="S15">
-        <v>0.007068874221897433</v>
+        <v>0.01659697424770665</v>
       </c>
       <c r="T15">
-        <v>0.007068874221897432</v>
+        <v>0.01659697424770666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2464976666666667</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H16">
-        <v>0.7394930000000001</v>
+        <v>57.025552</v>
       </c>
       <c r="I16">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J16">
-        <v>0.008602467078296965</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02458133333333333</v>
+        <v>0.06355066666666666</v>
       </c>
       <c r="N16">
-        <v>0.073744</v>
+        <v>0.190652</v>
       </c>
       <c r="O16">
-        <v>0.03208360253122151</v>
+        <v>0.03594931887456147</v>
       </c>
       <c r="P16">
-        <v>0.03208360253122151</v>
+        <v>0.03594931887456148</v>
       </c>
       <c r="Q16">
-        <v>0.006059241310222223</v>
+        <v>1.208003948878222</v>
       </c>
       <c r="R16">
-        <v>0.05453317179200001</v>
+        <v>10.872035539904</v>
       </c>
       <c r="S16">
-        <v>0.0002759981345279982</v>
+        <v>0.01531173373145469</v>
       </c>
       <c r="T16">
-        <v>0.0002759981345279982</v>
+        <v>0.0153117337314547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H17">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,33 +1488,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03552233333333334</v>
+        <v>0.03142433333333333</v>
       </c>
       <c r="N17">
-        <v>0.106567</v>
+        <v>0.094273</v>
       </c>
       <c r="O17">
-        <v>0.0463638163232898</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="P17">
-        <v>0.0463638163232898</v>
+        <v>0.01777610588014568</v>
       </c>
       <c r="Q17">
-        <v>0.008756172281222224</v>
+        <v>0.003602946463555556</v>
       </c>
       <c r="R17">
-        <v>0.07880555053100001</v>
+        <v>0.032426518172</v>
       </c>
       <c r="S17">
-        <v>0.000398843203545308</v>
+        <v>4.566819251698519E-05</v>
       </c>
       <c r="T17">
-        <v>0.000398843203545308</v>
+        <v>4.566819251698521E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,51 +1532,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.66654266666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H18">
-        <v>40.999628</v>
+        <v>0.343964</v>
       </c>
       <c r="I18">
-        <v>0.476945623680579</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J18">
-        <v>0.4769456236805791</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.07648333333333333</v>
+        <v>0.6295780000000001</v>
       </c>
       <c r="N18">
-        <v>0.22945</v>
+        <v>1.888734</v>
       </c>
       <c r="O18">
-        <v>0.09982619061603352</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="P18">
-        <v>0.09982619061603351</v>
+        <v>0.3561394626609005</v>
       </c>
       <c r="Q18">
-        <v>1.045262738288889</v>
+        <v>0.07218405573066668</v>
       </c>
       <c r="R18">
-        <v>9.407364644599999</v>
+        <v>0.6496565015760001</v>
       </c>
       <c r="S18">
-        <v>0.04761166474302048</v>
+        <v>0.0009149498575984165</v>
       </c>
       <c r="T18">
-        <v>0.04761166474302048</v>
+        <v>0.0009149498575984167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.66654266666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H19">
-        <v>40.999628</v>
+        <v>0.343964</v>
       </c>
       <c r="I19">
-        <v>0.476945623680579</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J19">
-        <v>0.4769456236805791</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6295780000000001</v>
+        <v>0.974347</v>
       </c>
       <c r="N19">
-        <v>1.888734</v>
+        <v>2.923041</v>
       </c>
       <c r="O19">
-        <v>0.8217263905294552</v>
+        <v>0.5511682698970745</v>
       </c>
       <c r="P19">
-        <v>0.8217263905294551</v>
+        <v>0.5511682698970746</v>
       </c>
       <c r="Q19">
-        <v>8.604154598994668</v>
+        <v>0.1117134305026667</v>
       </c>
       <c r="R19">
-        <v>77.437391390952</v>
+        <v>1.005420874524</v>
       </c>
       <c r="S19">
-        <v>0.391918805825862</v>
+        <v>0.001415993965642771</v>
       </c>
       <c r="T19">
-        <v>0.391918805825862</v>
+        <v>0.001415993965642771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.66654266666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H20">
-        <v>40.999628</v>
+        <v>0.343964</v>
       </c>
       <c r="I20">
-        <v>0.476945623680579</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J20">
-        <v>0.4769456236805791</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02458133333333333</v>
+        <v>0.06888499999999999</v>
       </c>
       <c r="N20">
-        <v>0.073744</v>
+        <v>0.206655</v>
       </c>
       <c r="O20">
-        <v>0.03208360253122151</v>
+        <v>0.03896684268731773</v>
       </c>
       <c r="P20">
-        <v>0.03208360253122151</v>
+        <v>0.03896684268731774</v>
       </c>
       <c r="Q20">
-        <v>0.3359418408035555</v>
+        <v>0.007897986713333333</v>
       </c>
       <c r="R20">
-        <v>3.023476567232</v>
+        <v>0.07108188041999999</v>
       </c>
       <c r="S20">
-        <v>0.01530213381917325</v>
+        <v>0.00010010883630093</v>
       </c>
       <c r="T20">
-        <v>0.01530213381917325</v>
+        <v>0.00010010883630093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.66654266666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H21">
-        <v>40.999628</v>
+        <v>0.343964</v>
       </c>
       <c r="I21">
-        <v>0.476945623680579</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J21">
-        <v>0.4769456236805791</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03552233333333334</v>
+        <v>0.06355066666666666</v>
       </c>
       <c r="N21">
-        <v>0.106567</v>
+        <v>0.190652</v>
       </c>
       <c r="O21">
-        <v>0.0463638163232898</v>
+        <v>0.03594931887456147</v>
       </c>
       <c r="P21">
-        <v>0.0463638163232898</v>
+        <v>0.03594931887456148</v>
       </c>
       <c r="Q21">
-        <v>0.4854674841195556</v>
+        <v>0.00728638050311111</v>
       </c>
       <c r="R21">
-        <v>4.369207357076</v>
+        <v>0.065577424528</v>
       </c>
       <c r="S21">
-        <v>0.02211301929252326</v>
+        <v>9.235658396092476E-05</v>
       </c>
       <c r="T21">
-        <v>0.02211301929252327</v>
+        <v>9.235658396092479E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.55827866666667</v>
+      </c>
+      <c r="H22">
+        <v>46.674836</v>
+      </c>
+      <c r="I22">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="J22">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03142433333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.094273</v>
+      </c>
+      <c r="O22">
+        <v>0.01777610588014568</v>
+      </c>
+      <c r="P22">
+        <v>0.01777610588014568</v>
+      </c>
+      <c r="Q22">
+        <v>0.4889085349142222</v>
+      </c>
+      <c r="R22">
+        <v>4.400176814228</v>
+      </c>
+      <c r="S22">
+        <v>0.006197030491989599</v>
+      </c>
+      <c r="T22">
+        <v>0.006197030491989603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.55827866666667</v>
+      </c>
+      <c r="H23">
+        <v>46.674836</v>
+      </c>
+      <c r="I23">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="J23">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6295780000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.888734</v>
+      </c>
+      <c r="O23">
+        <v>0.3561394626609005</v>
+      </c>
+      <c r="P23">
+        <v>0.3561394626609005</v>
+      </c>
+      <c r="Q23">
+        <v>9.795149966402668</v>
+      </c>
+      <c r="R23">
+        <v>88.15634969762401</v>
+      </c>
+      <c r="S23">
+        <v>0.1241558260504862</v>
+      </c>
+      <c r="T23">
+        <v>0.1241558260504863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.55827866666667</v>
+      </c>
+      <c r="H24">
+        <v>46.674836</v>
+      </c>
+      <c r="I24">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="J24">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.974347</v>
+      </c>
+      <c r="N24">
+        <v>2.923041</v>
+      </c>
+      <c r="O24">
+        <v>0.5511682698970745</v>
+      </c>
+      <c r="P24">
+        <v>0.5511682698970746</v>
+      </c>
+      <c r="Q24">
+        <v>15.15916214403066</v>
+      </c>
+      <c r="R24">
+        <v>136.432459296276</v>
+      </c>
+      <c r="S24">
+        <v>0.1921459400500225</v>
+      </c>
+      <c r="T24">
+        <v>0.1921459400500226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.55827866666667</v>
+      </c>
+      <c r="H25">
+        <v>46.674836</v>
+      </c>
+      <c r="I25">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="J25">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.06888499999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.206655</v>
+      </c>
+      <c r="O25">
+        <v>0.03896684268731773</v>
+      </c>
+      <c r="P25">
+        <v>0.03896684268731774</v>
+      </c>
+      <c r="Q25">
+        <v>1.071732025953333</v>
+      </c>
+      <c r="R25">
+        <v>9.645588233579998</v>
+      </c>
+      <c r="S25">
+        <v>0.01358445510721109</v>
+      </c>
+      <c r="T25">
+        <v>0.01358445510721109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.55827866666667</v>
+      </c>
+      <c r="H26">
+        <v>46.674836</v>
+      </c>
+      <c r="I26">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="J26">
+        <v>0.3486157504783503</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.06355066666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.190652</v>
+      </c>
+      <c r="O26">
+        <v>0.03594931887456147</v>
+      </c>
+      <c r="P26">
+        <v>0.03594931887456148</v>
+      </c>
+      <c r="Q26">
+        <v>0.9887389814524443</v>
+      </c>
+      <c r="R26">
+        <v>8.898650833071999</v>
+      </c>
+      <c r="S26">
+        <v>0.01253249877864077</v>
+      </c>
+      <c r="T26">
+        <v>0.01253249877864077</v>
       </c>
     </row>
   </sheetData>
